--- a/data/EDUCATORS 2025.xlsx
+++ b/data/EDUCATORS 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amsterdamdatacollective-my.sharepoint.com/personal/thomas_b_adc-consulting_com/Documents/Documents/Collective Week/Code/Schooltuinen%20Amsterdam/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{B918F259-2627-4BDF-93E4-D8D725001E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B39B385C-DA56-4CA5-B302-DB9FFBA610D4}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{B918F259-2627-4BDF-93E4-D8D725001E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48F2E99F-2BF9-42D1-8B09-83C357CADC6E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9610" yWindow="3335" windowWidth="17280" windowHeight="8990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beschikbaarheid" sheetId="1" r:id="rId1"/>
@@ -543,6 +543,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -890,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,19 +1182,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>4</v>
@@ -3329,15 +3333,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A42C61A6A2258C40BDFECD0BFE7AB149" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2f2bd0a4d5f789eebc9e9c32900f24e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5f414dda-f070-4b2c-a6a7-701907f758f3" xmlns:ns3="9701c0c3-e6e0-4347-a789-f10f63287cd9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a00c581b083e96fa0d5c8560d2b4ce04" ns2:_="" ns3:_="">
     <xsd:import namespace="5f414dda-f070-4b2c-a6a7-701907f758f3"/>
@@ -3592,7 +3587,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="5f414dda-f070-4b2c-a6a7-701907f758f3">
@@ -3603,15 +3598,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D8E0F6-4DD4-4592-A255-F16C2E6BC8B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0E4613B-97A9-4B3A-B03C-2E3DF7560EC6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3630,7 +3626,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A4D735E-97E2-4C58-B210-67FF382FAF05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3639,4 +3635,12 @@
     <ds:schemaRef ds:uri="9701c0c3-e6e0-4347-a789-f10f63287cd9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6D8E0F6-4DD4-4592-A255-F16C2E6BC8B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>